--- a/python/Human Design/data/profils.xlsx
+++ b/python/Human Design/data/profils.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederictaieb/Desktop/Python/Human Design/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E990A700-8D3F-ED46-B999-BDF9E900D7EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7064C02-E0EC-5044-90C0-661694A84832}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="6460" windowWidth="27240" windowHeight="16440" xr2:uid="{E10856D2-E1A7-1D4D-8252-BD1605C4604F}"/>
+    <workbookView xWindow="19400" yWindow="1360" windowWidth="21840" windowHeight="16440" xr2:uid="{E10856D2-E1A7-1D4D-8252-BD1605C4604F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,132 +25,139 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Generator</t>
-  </si>
-  <si>
-    <t>Generators are the people who provide continual power and life-force energy to the world. These are the people with staying power. The Sacral Center in their body is the key to their pure power. It creates the vital life-force energy required for action, living life, doing and creating. It is also the center of our sexuality and thus ensures the continuation of our kind.
-Pure Generators are people who have their Sacral Center activated and turned on all the time but have no connection to the human manifestation and expression center, the Throat Center.
-Most of us have been taught, cajoled or brought up as children to believe that we must initiate action. There is this faulty belief in the world that we should all just ‘do it’. We believe that we are Manifestors and can thus do anything, anytime we want to. But that is just not true for 91% of the worlds’ population.
-The greatest lesson for a generator is to learn to respond to life from their “gut.” Yes, they have energy to burn; energy to get all kinds of things done; but can they wait for their cue from the world?
-If they can, then all forms of frustrations are eliminated from their lives and are replaced with a deep feeling of satisfaction. By responding from within themselves to whatever life sends their way life becomes a joyful and satisfying experience for all Generators.
-Generators usually initiate action because they are fearful that nothing will happen otherwise. And this is the trap that enslaves them. If the Generator has the courage to wait they will learn very quickly that this fear is unfounded.
-The endless life force energy that the Generator holds within their Sacral center is a like a super powerful magnet that draws opportunities to it through their enveloping aura. Other people crave access to that huge energy resource and the Generator does not have to wait long before other people start asking for access to this resource.
-When the Generator waits for life to present itself, they become like a magnetic black hole that attracts everyone and everything to them automatically. All things will come to the Generator in their own timing – they do not need to initiate action to try and make things happen. Everything that is designed for and is right for them will be attracted automatically. Work, relationships, good fortuneâ€¦everything.
-Generators are designed to flow in the “now” with the current of life, taking their cues for action as they appear. Generators are not here to worry about the future. Their correct future will come automatically if they respond in the “now” to what life gives to them.
-Generators, with their huge energy resources, are also here to attain mastery in life. They are here to master whatever they make a correct commitment to through responding.
-One big sign that Generators should watch out for as an indication that they are responding and operating correctly is “synchronicity”. Things just magically start happening or appearing in their life automatically. They appear to be “lucky”.
-It is entirely possible that those Generators who have gone out and manifested without reference to their Sacral Center may in fact have been successful but they are rarely happy, satisfied or feel fulfilled.
-Often, Generators find themselves involved in projects or are committed to someone or something that does not really hold their interest or bring them fulfilment. They are just doing it because it seems like someone has to do it and they are the one with the energy! Of course, they get intensely frustrated, being the slave for someone else, giving away their power wholesale to whoever asks.
-The simple but profound lesson for all Generators is to know from within themselves to whom and to what they are going to commit themselves. It has to be stressed, that Generators need to know right from the start of any activity if they are going to commit or not because once they have committed their considerable energy to something or someone, there is no turning back without considerable frustration and inconvenience.
-Generators have an “on” switch but they do not have an “off” switch. If they find out after a few minutes that who or what they have just committed to does not actually suit them, it is too late to stop. That Sacral center has to follow through to completion once it has any kind of momentum. But if the Generator is desperate to stop and does quit they usually find themselves in turmoil. The very last resort for a Generator is quitting.
-The importance of the Sacral Center for a Generator cannot be over-emphasised. Their strategy for living life correctly comes from how this Sacral Center is really designed to work.
-The Sacral Center can only respond in the moment with a “yes” or “no” answer. It doesn’t use words to convey these answers. It delivers sounds from deep inside the stomach area. These sounds are like grunts or growls which, when you can interpret this “yes” or “no” sound, leads the Generator to make correct decisions for their life.
-The Generators job is to start to notice these sacral grunts and realise that they are your response mechanism. The Generator strategy for living their life is to wait to respond.
-Some Generators become confused about the word “wait”, but when you are awake and noticing all that is going on around you, waiting simply means listening to your sacral response before you act.
-For all Generators this is the key to changing their entire life, so that you live just who you are, without wasting the precious power of the Sacral Center.
-When the Generator finds their sacral response, they can get the “yes” or “no” that is necessary for them to move forward with their life. This response may come in the form of a grunt, “uhuh”, or “unhuh” or it may just be a feeling, a lifting or a deflation. The Generator needs to be very familiar with their sacral response, and they need time to check in with it. The answer may not come immediately.
-All Generators reach a level where they get stuck. They feel a barrier and sometimes turn back. If you have responded correctly then it is important for you to push through this barrier so that you can get to the next level. It is almost as if it is a test, so that you have the chance to ask your Sacral Center, again, if this is what you really want. Pushing through the barrier will confirm to you that you are on the right track.
-Generators are the workers and can become slaves if they do not listen to their Sacral Center. A Manifestor will always initiate and expect the Generator to be his “do-er”. A Projector will try to latch on to that Generator power in a similar way.
-So, Generators must remember to check with their Sacral Center before they consent to just “do” what the Manifestor, Projector or any other type suggests. They must become aware and stop living on “auto-pilot”. That is why the Generator is considered to be a natural slave. They sleep walk into giving their energy away to everyone else, instead of listening to their inner wisdom; their Sacral Center.
-Most Generators are living a repetitive toil of “the daily grind”; just trudging on with making a living. But they always have a gnawing discontentment and frustration within them that they are here for another purpose.
-All a Generator needs to do is respond correctly and their purpose will find them.</t>
-  </si>
-  <si>
-    <t>Manifesting Generator</t>
-  </si>
-  <si>
-    <t>Manifesting Generators (MG’s) have the same core genetic design as the Generator type.
-Both types are designed to respond to life through their Sacral Center before initiating energy.
-The reward for being patient and responding to life is that you will get your unique life.
-Responding naturally to the flow of life coming to you as a Manifesting Generator is ultimately the most efficient and satisfying way that your energy can be used.
-The essence of true spirituality for a Manifesting Generator is to trust that life itself has its plan for you and that it will unfold in its own natural timing as something that you are uniquely equipped to respond to.
-You cannot control the correct direction of your life by using a “rational” mental decision based approach. Your mind will actively guide you towards a life that ultimately will prove to be unsatisfying.
-The difference between Generators and Manifesting Generators is that Manifesting Generators are design to move to initiation very quickly after responding (unless they are emotional manifesting generators).
-These are the people with staying power. The Sacral Center in their body is the key to their pure power. It creates the vital life-force energy required for action, living life, doing and creating. It is also the center of our sexuality and thus ensures the continuation of our kind.
-The greatest lesson for a generator is to learn to respond to life from their “gut.” Yes, they have energy to burn; energy to get all kinds of things done; but can they wait for their cue from the world?
-If they can, then all forms of frustrations are eliminated from their lives and are replaced with a deep feeling of satisfaction. By responding from within themselves to whatever life sends their way life becomes a joyful and satisfying experience for all Generators.
-Generators usually initiate action because they are fearful that nothing will happen otherwise. And this is the trap that enslaves them. If the Generator has the courage to wait they will learn very quickly that this fear is unfounded.
-The endless life force energy that the Generator holds within their Sacral center is a like a super powerful magnet that draws opportunities to it through their enveloping aura. Other people crave access to that huge energy resource and the Generator does not have to wait long before other people start asking for access to this resource.
-When the Generator waits for life to present itself, they become like a magnetic black hole that attracts everyone and everything to them automatically. All things will come to the Generator in their own timing – they do not need to initiate action to try and make things happen. Everything that is designed for and is right for them will be attracted automatically. Work, relationships, good fortuneâ€¦everything.
-Generators are designed to flow in the “now” with the current of life, taking their cues for action as they appear. Generators are not here to worry about the future. Their correct future will come automatically if they respond in the “now” to what life gives to them.
-Generators, with their huge energy resources, are also here to attain mastery in life. They are here to master whatever they make a correct commitment to through responding.
-One big sign that Generators should watch out for as an indication that they are responding and operating correctly is “synchronicity”. Things just magically start happening or appearing in their life automatically. They appear to be “lucky”.
-It is entirely possible that those Generators who have gone out and manifested without reference to their Sacral Center may in fact have been successful but they are rarely happy, satisfied or feel fulfilled.
-Often, Generators find themselves involved in projects or are committed to someone or something that does not really hold their interest or bring them fulfilment. They are just doing it because it seems like someone has to do it and they are the one with the energy! Of course, they get intensely frustrated, being the slave for someone else, giving away their power wholesale to whoever asks.
-The simple but profound lesson for all Generators is to know from within themselves to whom and to what they are going to commit themselves. It has to be stressed, that Generators need to know right from the start of any activity if they are going to commit or not because once they have committed their considerable energy to something or someone, there is no turning back without considerable frustration and inconvenience.
-Generators have an “on” switch but they do not have an “off” switch. If they find out after a few minutes that who or what they have just committed to does not actually suit them, it is too late to stop. That Sacral center has to follow through to completion once it has any kind of momentum. But if the Generator is desperate to stop and does quit they usually find themselves in turmoil. The very last resort for a Generator is quitting.
-The importance of the Sacral Center for a Generator cannot be over-emphasised. Their strategy for living life correctly comes from how this Sacral Center is really designed to work.
-The Sacral Center can only respond in the moment with a “yes” or “no” answer. It doesn’t use words to convey these answers. It delivers sounds from deep inside the stomach area. These sounds are like grunts or growls which, when you can interpret this “yes” or “no” sound, leads the Generator to make correct decisions for their life.
-The Generators job is to start to notice these sacral grunts and realise that they are your response mechanism. The Generator strategy for living their life is to wait to respond.
-Some Generators become confused about the word “wait”, but when you are awake and noticing all that is going on around you, waiting simply means listening to your sacral response before you act.
-For all Generators this is the key to changing their entire life, so that you live just who you are, without wasting the precious power of the Sacral Center.
-When the Generator finds their sacral response, they can get the “yes” or “no” that is necessary for them to move forward with their life. This response may come in the form of a grunt, “uhuh”, or “unhuh” or it may just be a feeling, a lifting or a deflation. The Generator needs to be very familiar with their sacral response, and they need time to check in with it. The answer may not come immediately.
-All Generators reach a level where they get stuck. They feel a barrier and sometimes turn back. If you have responded correctly then it is important for you to push through this barrier so that you can get to the next level. It is almost as if it is a test, so that you have the chance to ask your Sacral Center, again, if this is what you really want. Pushing through the barrier will confirm to you that you are on the right track.
-Generators are the workers and can become slaves if they do not listen to their Sacral Center. A Manifestor will always initiate and expect the Generator to be his “do-er”. A Projector will try to latch on to that Generator power in a similar way.
-So, Generators must remember to check with their Sacral Center before they consent to just “do” what the Manifestor, Projector or any other type suggests. They must become aware and stop living on “auto-pilot”. That is why the Generator is considered to be a natural slave. They sleep walk into giving their energy away to everyone else, instead of listening to their inner wisdom; their Sacral Center.
-Most Generators are living a repetitive toil of “the daily grind”; just trudging on with making a living. But they always have a gnawing discontentment and frustration within them that they are here for another purpose.
-All a Generator needs to do is respond correctly and their purpose will find them.</t>
-  </si>
-  <si>
-    <t>Manifestor</t>
-  </si>
-  <si>
-    <t>Since the beginning of human-kind manifestors were the rulers, the law-makers and the decision makers. Power was the order of the day and manifestors always win when it comes down to displays of pure raw ‘always on’ power. They can explode with a terrific burst of energy from a state of standstill in a microsecond! But in today’s world the emphasis is on entrepreneurs, democracy, sharing, cooperation, decentralized power. Absolute rulers are not welcome at all! The purpose of being a manifestor seems to have been taken away and the new world order has been taken over by the other types.
-Projectors are our natural guides and democratic leaders. Generators and manifesting generators are the builders who are starting to learn that they are just as powerful as manifestors if they follow their strategies effectively. Even Reflectors have value roles to play in today’s society. But manifestors? Where do they fit in now? I think this change in the role of the pure manifestor is a real opportunity for them to evolve. Manifestors who are born today have the opportunity to relax, be free and have fun in their lives! Instead of being the autocratic rulers they can be measured by the initiating impact they have on the world.
-They can initiate great projects and endeavors but will rarely stick with them right to the end. The baton usually must be passed to the generator group who have the staying power. But without the initial force and power that manifestors bring many projects would never get started in the first place Manifestors are still the only type of human being designed to freely initiate and with no precedent. Out of the blue, quite unexpectedly they see something and it happens. What a valuable quality to have.
-They can be relied upon to break out from the crowd, to break the mould, to try something new and different. If manifestors are given this level of freedom they will really be able to bring their unique qualities into this world. Manifestors have no set pattern of work. They are not designed to work 9 to 5 day after day until they die.
-The world needs people that can do thatâ€¦but they are not manifestors. Manifestors can make money easily and naturally in all sorts of different and unique ways. And because of their desire not to be controlled by others they usually work for themselves eventually. Manifestors are fast! Most manifestors find the pace of life very slow; it is as if life is in slow motion around them.
-Everything, including their breathing, is faster in a manifestor body! So fear not all you millions of manifestors out there. With the advent of global communications and infrastructure coupled to your ability to manifest freely at great speed, and alone, a world of opportunity awaits both now and in the future! Manifestors still have a very important place in this world and (as I am sadly reading on many Internet sites) are certainly not ready to be put out to pasture and quietly retire from the world now that th eir place as rulers has gone! Don’t believe that for a minute!
-The manifestor is perfectly designed to operate beautifully in the complex and technologically connected world that we live in!</t>
-  </si>
-  <si>
-    <t>Projector</t>
-  </si>
-  <si>
-    <t>Projectors cannot just direct anyone. They must understand and remember that their strategy for life is to “wait until you are recognized and invited” by someone else. Only when Projectors are correct and wait for this invitation to impart their undoubted intelligence and wisdom, will their own life be correct.
-Having said that, most Projectors are usually more interested in other people than themselves so they love to jump in and try to help people without being invited! This is an admirable quality, but it is the Projector who will end up feeling unappreciated, exhausted and bitter when they are not appreciated for doing this.
-The familiar Projector lament is: “What if I am not recognized and invited?” “Surely I should do something to make this happen?”
-Well, in truth, t here is nothing for the Projector to do until they are first recognized and invited by the right person. It is in the design of the Projector to be noticed so they should have faith in that.
-Projectors are genetically coded via their aura to have other people recognize and approach them. So they just need to relax and wait for the right person to come along. And they will! When the Projector relaxes and stays silent, that Projector aura does all the talking and brings the invitation of others.
-It is so important for Projectors to understand that if they succumb to this fear of not being recognized and force the pace with other people they are not only wasting their precious and limited energy resources but they are also missing the real opportunities.
-The Projector will never find what is right for them by jumping in and trying to make things happen.
-A Projector needs the right person in their life not just any old person.
-How does the Projector know if someone is right for them? Other people recognize, approach, and invite them! Until that happens no one is worth wasting that precious Projector energy and wisdom on.
-Some Projectors do not have a consistently reliable way of making decisions and others have very gentle and delicate inner authorities. The truth is some Projectors can be very spontaneous with decisions; others will need to wait a week before they can make a decision and others will have to wait longer, have discussions with others and seek feedback before they come to any conclusive decision with any clarity.
-So, it is even more critically important to wait for that recognition and that right invitation because it can greatly reduce the potential for incorrect decisions for a Projector.
-Projectors should not take this “wait for the invitation” to extremes though! In fact, if the Projector only uses this strategy for the major turning points in their life it will pay huge dividends for them.
-These turning points are the moments in the Projectors life when they must honor their strategy of waiting to be recognized first and then invited. Only then should they make a decision on whether the invitation is right for them.</t>
-  </si>
-  <si>
-    <t>Reflector</t>
-  </si>
-  <si>
-    <t>Reflectors have no decision making area within themselves that they can rely on.
-Generators can rely on their sacral center for decision making. People with Splenic Center decision making authority can rely on the spontaneity of their decisions. Those with an activated Solar Plexus Center need to wait for absolute clarity through their emotional wave before making any decision but they can still rely on it to be there for them. Even people with heart or self centers holding sway for their decisions have a reliable if more delicate mechanism. But Reflectors? They have no Center activations at all. How are Reflectors supposed to make reliable decisions for their lives?
-Reflectors, uniquely, have a very close relationship with the moon. They live in a time zone all their own. It is a lunar cycle time zone. It is this closeness to the moon that offers the Reflector an ability to make decisions reliably. But in order to be correct the Reflector needs to wait out the entire 28 day lunar cycle before making a decision. And of course this is a very difficult thing to do!
-But it is important for Reflectors to not allow themselves to be rushed into making decisions. When someone finds out that they are a Reflector for the first time they should begin the process of explaining to other people that it is not healthy for them to be rushed in their process.
-It is also helpful for Reflectors to monitor the daily transit of the planets and the impact this will have on them for that day. The daily transit chart shows the gate activations in all human beings for that day as a result of the current position of the planets. These activations (depending on the gates involved) can activate centers, form channels or add additional active gates to an existing center.
-So, when the daily chart is that of a Manifestor, that is who the Reflector will be. Or a Generator or a Projector.
-Reflectors can really use this to their advantage. By looking ahead in time at the transit charts for future days the Reflector will know exactly how energetic or not they will be feeling. So they can select their Manifestor, Generator and Manifesting Generator days when they need to really productive! And maybe not commit so much on the Projector days.
-The important thing for the Reflector to remember is that this transit is not who they really are, they are just reflecting. The most reliable aspect of a Reflectors personality will be their profile and motivational Color. These aspects of the Reflector are not affected by transiting planets or people moving in and out of the Reflector aura.
-Reflectors will also find it helpful to talk to others and listen objectively to the feedback during their 28 day process of making any decision. They should also try to have the same conversation with different people to see the different responses and possibilities to any situation.
-Four of the most important decisions a Reflector will need to make correctly in life are:
-– Where they live
-– Who they live with
-– Where they work
-– Who they work with
-They reflect the community and the health of the community and environment around them.
-If the community they live within is supportive and nourishing they will blossom and flourish. If it isn’t, life can become very disappointing for the Reflector.
-If Reflectors really master their human designs they have the chance to become the wisest and most objective people amongst us.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>People with a 1-3 profile in their design have an inward focus. The are driven to investigate and look at the results of their experiences in an inward fashion. Often they may subconsciously ask the question, “How did that affect me?”
+The 1st line of the profile, The 1 is motivated to find out the details surrounding any potential interaction. The details provide a foundation and stability that the 1st line personality resides on.  An example might be  going on vacation. The 1st line will often want to know: Where they are staying;  What activities are around the local area; How they are going to get to and from the airport and more. The answer to these questions may lead to more questions until that foundation is achieved. Not all 1st lines are created equal. Some, like in the case of Dulcy in the chart below will have their need for details amplified by the other aspects of their design. Dulcy has the gate 48 which longs for depth. Together with a 1st line profile she has a great drive for detail to make decisions. Others like Nina in the chart below may just feel the drive for investigation on things they are passionately involved in.
+The 3rd line of the profile is driven to learn through experience or experimentation. Again the results of which are analyzed in “What affect did that have on me?”. It is through the experience of things that work well and things that don’t work so well that the 3rd line becomes wise about the best way to do things. Once the wisdom occurs the 3rd line will look to repeat the positive results and minimize or eliminate the negative or unproductive experiences.
+Put together the aspects of the 1-3 profile provide us with experts on how to do things and more importantly how not too! You might hear a 1-3 say “Oh don’t do that, I tried that and it was  a disaster. Do it this way instead.” We should all be grateful for the work the 1-3’s have done to make our life better.</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>The 1-4 &amp; 4-1 profiles are steeped in foundation. For these personalities to function they require a foundational basis which they can rely on as they extend themselves outward to others. The difference in these two lines is the the orientation. The 1st line is oriented toward an inward foundation of information, while the 4th line is oriented toward the outward foundation of key aspects of life.
+The 1st line is also known as the investigator. The investigator is driven to know detail. This is why a 1st line person often asks a lot of questions. Though investigating and asking questions the 1st line builds up a platform for which they can base their actions on. Most 1st lines who are going to work with people, whether one on one or as a teacher of many, will take multiple classes or workshops until they feel the foundation is complete. Part of this is to feel comfortable. They will often not reach their comfort level until their investigation has unearthed a deep amount of detail.
+The 4th line is also known as the opportunist. The opportunity lies within the foundation of the 4th line persons network. It is through their network, that 4th lines will most often find a job, meet their significant other, find their house or their place to live. The foundation of the 4th line is their friends, their co-workers, their home, their family, their job and the groups they are a part of. Because of this 4th lines will often look to have a replacement lined up before moving on.   When they do move on from friends, job or location, they will likely hold fast to at least one of these other foundational pieces. For example. if they are moving to a new city, they will probably hold tight to old friends or family until they are settled in the new city and have begun to build a new group of friends.
+So what is the difference between these two profiles? The difference is that the 1-4 will be more inwardly or self focused and a bit more driven to get details and or experience. The 4-1 will be more outwardly focused on interpersonal interaction with the investigation coming as second nature. The 4-1 would typically let the 1-4 ask the questions so they can benefit from the detailed information in the answer.</t>
+  </si>
+  <si>
+    <t>2/4</t>
+  </si>
+  <si>
+    <t>People that have the 2-4 profile, the Hermit/Opportunist need a balance of being alone and being social. These people are often very socially integrated and have a bubbly or intriguing personality. These people of are the type that can start a conversation with anyone.
+The 2nd line of the profile is called the hermit as it has a need to be alone or have seclusion. Part of the importance of the alone time is to allow integration of ideas and experiences to take place. The 2nd line needs to be out of the energy of others for this important integration to take place. However the 2nd line is not a successful hermit because others recognize that the 2nd line person can’t live in a cave. Thus the 2nd lines are extended invitations and called out of their hermit environment.
+The 4th line of the profile is an opportunist and the opportunity comes through the network that this person is connected to.  For the 4th line person it is important to constantly be aware of opportunities that may present themselves through friends, family, peers etc. In connection with this, the 4th line person requires stability and foundation within core elements of their network. This foundation is to have stability in the core areas of job, housing and relationship. Most 4th lines will look to establish the new opportunity before severing the old.  With a job for example, 4th lines will typically secure the new job before giving notice at their current place of employment. If they are moving they will line up the new location before moving out of their current housing. The same could be said about the relationships for a 4th line person.</t>
+  </si>
+  <si>
+    <t>2/5</t>
+  </si>
+  <si>
+    <t>The 2-5 and 5-2 profiles can add a magnetic and alluring quality  to ones personality. While this can draw others in, it can also create a heaviness or pressure that is associated with the 5th line projection. Ultimately the 2-5 and 5-2 will need to escape the pressure and get their alone time away form the energy. Lets look at the affects of these two lines.
+As we said the 5th line is projective. It is inwardly projecting energy, yet the orientation of the 5th line is looking outward, watching and wanting to interact with others. The result of this inward projection and outward view creates a magnetic vortex and other people are drawn to see what it is about. But since it is a projection the qualities within the projection are not always real or substantial. There is the potential of interpretation by others that is an illusion. Others often make a quick assumption about what the 5th line person is really about. But this quick assessment lacks depth and over time there may come surprise or judgment when the 5th line person does not match the assumption. This interaction can create pressure on the 5th line and they will seek recluse from the projection so they won’t be judged.
+The 2nd line is called the hermit. So with the 2nd line profile there is also a need to withdraw. But this need is fueled not by the pressure but by the need for alone time to assimilate. Anything a 2nd line encounters, whether it is knowledge, personal interactions, or physically mastering a new skill, the 2nd line needs down or alone time to integrate the new information or experience. But the 2nd line also produces a projection of energy going outward. Mixed with the inward orientation of the 2nd line, this energy acts like a beacon that others are drawn to call out. So try as they might the 2nd line will get invitations to come out and play.
+Because of the interplay of the projections, the magnetic draw of others, the pressure to be alone and the need to assimilate, 2-5 &amp; 5-2’s are social beings, but it can take time to get to know them. You need to peel the onion so to speak, to get deep into their skin.</t>
+  </si>
+  <si>
+    <t>3/5</t>
+  </si>
+  <si>
+    <t>Someone with a  3-5 profile in Human Design is driven to take the results of their experiences and use those to project change and what they see as the Truth to the rest of the world.  In Human Design the 3rd line is called the Martyr and the 5th line is called the Heretic. What follows explains why this profile carries such heavy names.
+The 3rd line profile is driven to experiment with certain things or put themselves in situations so they can have an experience from which they extract truths. This process has an inward or self focus.  As they go through it they are constantly internalizing what is revealed and how this impacts them.  After synthesizing the impact, they then share the results with world or at least their local community. Because society judges some experiments as failures the 3rd line carries the moniker of Martyr.
+The 5th line kicks in to share the results of these experiments/experiences in a projected way. In a broadcast like a movie projector, they not only say “Here is what I learned”, but also add, “This is how you should change your behavior or yourself to benefit from the Truth I have discovered.” The 5th line is driven to create this change, often geared toward changing the behavior of others. This projection also carries an absoluteness to it, as in “I know this is right.”  However since this energy is projected, it needs to be invited. People don’t want change unless they are ready for it. If the prognostications of the 5th line are not invited then the 5th line person can feel the oppression of rejection or the insult of being ignored. This is why the 5th line carries the moniker of the Heretic.
+The 3-5 profile can be one of the more difficult profiles to feel at harmony with the rest of humanity. Between the projection not always being invited and the experiments being judged, the 3-5 person can feel pressure from the world to withdraw to get out of the heat. Yet the 5th line is determined to make change and will push the 3-5 out there again, to project the way.</t>
+  </si>
+  <si>
+    <t>3/6</t>
+  </si>
+  <si>
+    <t>The 6-3 and the 3-6 profiles are bound by a need to learn from experience. The profile is labeled the Role Model / Martyr or Martyr / Role Model depending on the which comes first. From an outsider they may see many failures from people with this profile but in reality nothing here is a failure for all experiences bring wisdom.
+The 3rd line as we know is experimental or experiential in nature. It slants this persons  personality to have an encounter and internalize the results. “How did that affect me?”. The 3rd line must try it to know it. People with the 3rd line cannot rely on the experience of someone else as they must have that experience to know it. The fullness gets lost in words. There is an inward focus so they can’t just watch anther do it and vicariously experience it for themselves. They need to  know it so they live it.
+In addition with these profiles we have the 6th line that goes through the three life stages. In the first 28 years the 6th line behaves like a 3rd line. So in essence until age 28 we have a double 3rd line personality. Experiment &amp; Experience. This profile has got to try it! At age 28 the 6th line realizes it is not actually a 3rd line and the orientation shifts. Instead of being internally or inward focused the 6th line becomes observational and watches how others experiment and experience. The 6th line continues to watch and build wisdom until about age 50 when they “come off the roof” and step into their Role Model stage. The Role Model is full of wisdom from experimenting and observing and will get involved when it is worthwhile to themselves and the others seeking guidance.
+The difference between the 6-3 and the 3-6 is in the lead orientation. The 3-6 will be more inwardly focused on first impression while the 6-3 will have a more outward look. Both profiles will have outward and inward orientation and typically will start out life more inwardly focused and turn more outwardly as they mature especially after age 40. By age 40 the experimentation and experience has led to wisdom so its necessity diminishes.</t>
+  </si>
+  <si>
+    <t>4/6</t>
+  </si>
+  <si>
+    <t>The 4-6 profile is the only profile within the Human Design system were both lines  go through 3 different life stages. These stages are divided into the first 28 years of life, from 28-50 and after 50.
+At birth a person born in a 4-6 profile lives as if they were a 1-3 profile. They investigate and look for the foundation of the 1st line. They take to experimenting like a 3rd line person. They have an inward focus and take the results of their investigations and experiments and internalize them. For example, “I came up on a stranger rather brusquely in the park and I got punched in the eye.  Why did that happen to me?”
+Unfortunately for the 4-6 the investigation and experimentation does not work very well. There is something about the geometry of the energy where the internalization of the experiences and investigations that does not sit right.
+So at age 28 around the Saturn return, the 4-6 changes perspective. Instead of an inward focus they venture “up on the roof.” From the roof the 4-6 shifts their perspective to become observational, with a focus on the actions and experiences of others. Now they watch. They see the results of others actions and they take the results of these and  draw them back to themselves. “Ah, when that person approached an apparent stranger in the park slowly, with their hand out stretched, they were greeted warmly. Now I see how I could do that too” The 4-6 on the roof lives somewhat removed or aloof from 28 to age 50, watching and observing.
+At 50 or when their Chiron returns, the 4-6 comes off the roof. They now have the wisdom of the first 28 years and how things don’t work so well and also how it is to be inwardly focused. They also have the experience of 28-50 and outwardly focused having watched how it all works. The 4-6 is ready to step into their role model hood. This is not a pushy role model. This is the wise woman on the hill. If she is asked or it is worth her while she will get involved and help out. People will seek out the role model for their perceived value.</t>
+  </si>
+  <si>
+    <t>4/1</t>
+  </si>
+  <si>
+    <t>5/1</t>
+  </si>
+  <si>
+    <t>Okay, some of you 5-1 profiles out there kind of like the title Heretic and some of you shiver at the idea of being burned at the stake. But no matter what your position on that title, the bottom line for you is that in this life time the lead aspects of your personality are projected, The 5th line is a projection that is magnetic, alluring, repelling and it is not real. The basis of the projection is your design energies, be they shock, opinions, correction, joy to life, etc.
+But the projection is not you actively expressing your energies so they are up to interpretation of the receiver. Since this is perception is almost all non verbal it is likely to be inaccurate or incomplete. So the people you meet will often form opinions or impressions of you that in the long term don’t match the real you underneath that projected field. Because of this dance of perception, it can become heavy and you are driven to escape the spotlight and be alone.
+So 5th lines have this dilemma. The magnetic part of you wants the spotlight but after you have it for a while you need to get out. When you add in the driving need for change that also underlies the 5th line, we now have the Heretic. Someone who is calling for change yet we don’t  truly know who you are and what you stand for. You can see the duality here. Beauty and the Beast all in this one profile line.
+With the second aspect of their profile being the 1st line, the Investigator, 5-1’s have a need for finding out the foundational details too. It is through the details that you can carry that projection forward. These details or skills that you achieve can help put foundation into the change that you are driven to make. In comparing the 1st lines of profiles  5-1 to a 1-3, the 5-1 will apply the investigation in a less consistent way. Typically the 1-3 is a fanatic about questions and detail where as the 5-1 will be investigative on a “need to know” basis.</t>
+  </si>
+  <si>
+    <t>5/2</t>
+  </si>
+  <si>
+    <t>6/2</t>
+  </si>
+  <si>
+    <t>The 6-2 profile is an interesting blend of personality energies. The 2nd line hermit in combination with the 6th line progression of life stages can lead to 3 distinct expressions in the life of a 6-2.To understand the stages lets focus on the progression of the the 6th line.
+In the first 28 years or until Saturn returns the 6th line is introspective and experimental. Coupled with the the hermit of the 2nd line this can be quiet or reserved self experimenting individual. Though through their experimentation they may have burst of energetic expression or what might seem like explosions from their somewhat reserved personalities. The 2nd line hermit will keep pulling them into being alone, but the friends of the individual will call them out.  Overall there is an intensity to the inward focus with both the 2nd and 3rd lines being inward. But as the 6-2 approaches age 28 the 6th line will give up the experimentation and head for the roof.
+From 28 to around 50 the 6th line is up on the roof. This is a more aloof time for the 6th line and they are no peering outward, looking at how other people do things. They are trying to learn about life through the results of others and then pulling in this wisdom and internalizing it. The roof can feel muted and less engaged. Again with the 2nd line they will want to be alone and be called out. Perhaps developing a cycle or rhythm or pattern or withdrawing then going out.
+At 50 or around the return of Kyron the 6-2 is ready to come down off the roof and be the role model. Through the self experimentation of the younger years and the observation of the middle years the 6-2 has assembled a wealth of wisdom to be shared. But while the 6-2 is a social being they are reserved. The role model will not be preachy but come out when called upon. This can be a dilema to the 6-2 and those around them. They can seem aloof or not engaged. But in reality they are waiting for that call out when they can supply their role model wisdom for the benefit of themselves and others.</t>
+  </si>
+  <si>
+    <t>6/3</t>
+  </si>
+  <si>
+    <t>Name1</t>
+  </si>
+  <si>
+    <t>Name2</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Investigateur</t>
+  </si>
+  <si>
+    <t>Opportuniste</t>
+  </si>
+  <si>
+    <t>Ermite</t>
+  </si>
+  <si>
+    <t>Martyr</t>
+  </si>
+  <si>
+    <t>Heretic</t>
+  </si>
+  <si>
+    <t>Heretique</t>
+  </si>
+  <si>
+    <t>Role Modèle</t>
+  </si>
+  <si>
+    <t>Lines</t>
+  </si>
+  <si>
+    <t>Description_FR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,6 +177,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,10 +211,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -515,93 +532,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D9F82D-BC49-7D47-81FE-FD3331343FE1}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="2"/>
-    </row>
-    <row r="23" spans="4:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="D23" s="1"/>
-    </row>
-    <row r="35" spans="4:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="D35" s="1"/>
-    </row>
-    <row r="45" spans="4:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="D45" s="1"/>
-    </row>
-    <row r="55" spans="4:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="D55" s="1"/>
-    </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D57" s="2"/>
-    </row>
-    <row r="59" spans="4:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="D59" s="1"/>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D67" s="2"/>
-    </row>
-    <row r="69" spans="4:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="D69" s="1"/>
-    </row>
-    <row r="79" spans="4:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="D79" s="1"/>
-    </row>
-    <row r="89" spans="4:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="D89" s="1"/>
-    </row>
-    <row r="99" spans="4:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="D99" s="1"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="24" spans="6:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="36" spans="6:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F36" s="1"/>
+    </row>
+    <row r="46" spans="6:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F46" s="1"/>
+    </row>
+    <row r="56" spans="6:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F56" s="1"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F58" s="2"/>
+    </row>
+    <row r="60" spans="6:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F60" s="1"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F68" s="2"/>
+    </row>
+    <row r="70" spans="6:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F70" s="1"/>
+    </row>
+    <row r="80" spans="6:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F80" s="1"/>
+    </row>
+    <row r="90" spans="6:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F90" s="1"/>
+    </row>
+    <row r="100" spans="6:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F100" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
